--- a/classification/droptc/sentence/neo-bert/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/unfreeze/87212562/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5740784406661987</v>
+        <v>0.9233973622322083</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5943104028701782</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9368786215782166</v>
+        <v>0.9843267798423767</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9900388121604919</v>
+        <v>0.9971168041229248</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9875077605247498</v>
+        <v>0.9998915195465088</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9979876279830933</v>
+        <v>0.9979633092880249</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9562815427780151</v>
+        <v>0.999619722366333</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9321077466011047</v>
+        <v>0.9993894100189209</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9929002523422241</v>
+        <v>0.999619722366333</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9947049021720886</v>
+        <v>0.8972815275192261</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9812654852867126</v>
+        <v>0.9998125433921814</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8961198925971985</v>
+        <v>0.9946908354759216</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9378387928009033</v>
+        <v>0.909697413444519</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9901781678199768</v>
+        <v>0.8378880023956299</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4784165918827057</v>
+        <v>0.999800980091095</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9979447722434998</v>
+        <v>0.9493330717086792</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.980441689491272</v>
+        <v>0.993869423866272</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9775391817092896</v>
+        <v>0.9996174573898315</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9896929860115051</v>
+        <v>0.997308611869812</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9190803170204163</v>
+        <v>0.9999158382415771</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9572221636772156</v>
+        <v>0.9941627383232117</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7822018265724182</v>
+        <v>0.9999606609344482</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9927244782447815</v>
+        <v>0.9990278482437134</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4459369778633118</v>
+        <v>0.7151170969009399</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5323041677474976</v>
+        <v>0.9932684302330017</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9138597249984741</v>
+        <v>0.9995900988578796</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9844418168067932</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3122224509716034</v>
+        <v>0.9997631907463074</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9870123267173767</v>
+        <v>0.999786913394928</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9284293651580811</v>
+        <v>0.999967098236084</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8779572248458862</v>
+        <v>0.9985671043395996</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9770832061767578</v>
+        <v>0.9895015358924866</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9979088306427002</v>
+        <v>0.5854642391204834</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8240988850593567</v>
+        <v>0.9991983771324158</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3661272525787354</v>
+        <v>0.999964714050293</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9621661305427551</v>
+        <v>0.9999690055847168</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9802519679069519</v>
+        <v>0.9999763965606689</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5818095803260803</v>
+        <v>0.8654486536979675</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9868196845054626</v>
+        <v>0.5199215412139893</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9368786215782166</v>
+        <v>0.9987364411354065</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8272059559822083</v>
+        <v>0.4394911527633667</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9979447722434998</v>
+        <v>0.6433810591697693</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9321077466011047</v>
+        <v>0.9998370409011841</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9923877716064453</v>
+        <v>0.995830237865448</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8026890754699707</v>
+        <v>0.7183440923690796</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7905853390693665</v>
+        <v>0.8711995482444763</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5447775721549988</v>
+        <v>0.9670211672782898</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9140275716781616</v>
+        <v>0.999987006187439</v>
       </c>
     </row>
     <row r="50">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3082672655582428</v>
+        <v>0.9941139817237854</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9962452054023743</v>
+        <v>0.7541640996932983</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7612934708595276</v>
+        <v>0.9999235868453979</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8390274047851562</v>
+        <v>0.9941139817237854</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3843777477741241</v>
+        <v>0.9932717680931091</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9881205558776855</v>
+        <v>0.9999954700469971</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9798506498336792</v>
+        <v>0.9998219609260559</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.73345547914505</v>
+        <v>0.9992042183876038</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9928910732269287</v>
+        <v>0.9990788698196411</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9927244782447815</v>
+        <v>0.9996592998504639</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.821796178817749</v>
+        <v>0.9945881366729736</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9837042689323425</v>
+        <v>0.9994565844535828</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8315173983573914</v>
+        <v>0.9994717240333557</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9968256950378418</v>
+        <v>0.9996514320373535</v>
       </c>
     </row>
     <row r="64">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9777517914772034</v>
+        <v>0.6987004280090332</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8570700883865356</v>
+        <v>0.999700665473938</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9707687497138977</v>
+        <v>0.999700665473938</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8931108713150024</v>
+        <v>0.9987254738807678</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9870452284812927</v>
+        <v>0.999700665473938</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9768814444541931</v>
+        <v>0.999308705329895</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9853315353393555</v>
+        <v>0.9999167919158936</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9325965642929077</v>
+        <v>0.9866264462471008</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9937898516654968</v>
+        <v>0.9994125366210938</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9068597555160522</v>
+        <v>0.9999244213104248</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9863179922103882</v>
+        <v>0.9977275729179382</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.987505316734314</v>
+        <v>0.9992209672927856</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8863531351089478</v>
+        <v>0.9999244213104248</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8995199203491211</v>
+        <v>0.9998985528945923</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9892761707305908</v>
+        <v>0.9999244213104248</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5146628022193909</v>
+        <v>0.9999905824661255</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9790225625038147</v>
+        <v>0.9999037981033325</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9770832061767578</v>
+        <v>0.9995847344398499</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8021332621574402</v>
+        <v>0.9999037981033325</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9075857400894165</v>
+        <v>0.9957770109176636</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9911308288574219</v>
+        <v>0.9957770109176636</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.891649603843689</v>
+        <v>0.9999474287033081</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9618046283721924</v>
+        <v>0.9998778104782104</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9292882680892944</v>
+        <v>0.9871283769607544</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9862624406814575</v>
+        <v>0.9999486207962036</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9962432384490967</v>
+        <v>0.9994183778762817</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9895827770233154</v>
+        <v>0.999880313873291</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9979447722434998</v>
+        <v>0.9997552037239075</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9368911981582642</v>
+        <v>0.999889612197876</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.863793671131134</v>
+        <v>0.9997171759605408</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8807728290557861</v>
+        <v>0.9997174143791199</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9742107391357422</v>
+        <v>0.9997724890708923</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3509790301322937</v>
+        <v>0.9989560842514038</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5196444988250732</v>
+        <v>0.9904065728187561</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9901781678199768</v>
+        <v>0.9997120499610901</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9356896281242371</v>
+        <v>0.8166022896766663</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.7449422478675842</v>
+        <v>0.9604042768478394</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9390987157821655</v>
+        <v>0.9995381832122803</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9866403937339783</v>
+        <v>0.9389681220054626</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4096179902553558</v>
+        <v>0.9345731735229492</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9911296367645264</v>
+        <v>0.9996879100799561</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7047961950302124</v>
+        <v>0.9999738931655884</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9659333825111389</v>
+        <v>0.9995636343955994</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9950599074363708</v>
+        <v>0.9123052954673767</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9251925349235535</v>
+        <v>0.9998629093170166</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9877399802207947</v>
+        <v>0.9983373880386353</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9977062940597534</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9496592283248901</v>
+        <v>0.9931035041809082</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6728551387786865</v>
+        <v>0.66325443983078</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9895080327987671</v>
+        <v>0.9998425245285034</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9593522548675537</v>
+        <v>0.998843789100647</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.6182321906089783</v>
+        <v>0.9990350008010864</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3842440247535706</v>
+        <v>0.9719396233558655</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9311416745185852</v>
+        <v>0.9991304278373718</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8531773686408997</v>
+        <v>0.7934723496437073</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.8863531351089478</v>
+        <v>0.5007569193840027</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.85844886302948</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9950599074363708</v>
+        <v>0.9996981620788574</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4595478177070618</v>
+        <v>0.9998117089271545</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9921684861183167</v>
+        <v>0.9996981620788574</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9979447722434998</v>
+        <v>0.9998117089271545</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9777517914772034</v>
+        <v>0.9996981620788574</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9220899343490601</v>
+        <v>0.9999797344207764</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.3656266033649445</v>
+        <v>0.9930723309516907</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3991120159626007</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.961634635925293</v>
+        <v>0.9573272466659546</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.3472887575626373</v>
+        <v>0.7527809143066406</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.6383523941040039</v>
+        <v>0.9999359846115112</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.981988787651062</v>
+        <v>0.4710858464241028</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.8822033405303955</v>
+        <v>0.9993621706962585</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9883435964584351</v>
+        <v>0.9724023938179016</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9920044541358948</v>
+        <v>0.9252594709396362</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9939790964126587</v>
+        <v>0.9974562525749207</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.6288092732429504</v>
+        <v>0.9999171495437622</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9979447722434998</v>
+        <v>0.9997308850288391</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9659333825111389</v>
+        <v>0.999806821346283</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9809086322784424</v>
+        <v>0.9999492168426514</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9975540041923523</v>
+        <v>0.9358997344970703</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.912589430809021</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9713528156280518</v>
+        <v>0.9995154142379761</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9961658716201782</v>
+        <v>0.9996240139007568</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9261142015457153</v>
+        <v>0.9995154142379761</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9613798260688782</v>
+        <v>0.9996868371963501</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8390274047851562</v>
+        <v>0.999308705329895</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.8693915009498596</v>
+        <v>0.9998224377632141</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9979447722434998</v>
+        <v>0.9984063506126404</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.7615995407104492</v>
+        <v>0.9356433749198914</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9764851331710815</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9979447722434998</v>
+        <v>0.9613723158836365</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.4761916399002075</v>
+        <v>0.9999182224273682</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9950599074363708</v>
+        <v>0.9999039173126221</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9868315458297729</v>
+        <v>0.9999953508377075</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9963709115982056</v>
+        <v>0.9999217987060547</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9697369933128357</v>
+        <v>0.9999892711639404</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.990218460559845</v>
+        <v>0.9999586343765259</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9518165588378906</v>
+        <v>0.9999804496765137</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9948714971542358</v>
+        <v>0.9395650625228882</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.5445689558982849</v>
+        <v>0.997972309589386</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6883152723312378</v>
+        <v>0.9971855282783508</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9844961166381836</v>
+        <v>0.9252459406852722</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9980454444885254</v>
+        <v>0.9990262985229492</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9939858317375183</v>
+        <v>0.9999561309814453</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.7571887969970703</v>
+        <v>0.9588943123817444</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9880033731460571</v>
+        <v>0.9972023963928223</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9730513095855713</v>
+        <v>0.6682656407356262</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9792308807373047</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9652450680732727</v>
+        <v>0.9972023963928223</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.7935693860054016</v>
+        <v>0.9471983909606934</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.997068464756012</v>
+        <v>0.9999867677688599</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.8302847743034363</v>
+        <v>0.9997921586036682</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9979447722434998</v>
+        <v>0.9997287392616272</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9986364245414734</v>
+        <v>0.9997921586036682</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9881205558776855</v>
+        <v>0.9997921586036682</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9898090362548828</v>
+        <v>0.9997287392616272</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9872426986694336</v>
+        <v>0.999413013458252</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9284293651580811</v>
+        <v>0.9998626708984375</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9886504411697388</v>
+        <v>0.9997511506080627</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9967808723449707</v>
+        <v>0.7599604725837708</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9292882680892944</v>
+        <v>0.9994175434112549</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.7360497117042542</v>
+        <v>0.9999438524246216</v>
       </c>
     </row>
     <row r="184">
@@ -5579,14 +5579,14 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.5290164351463318</v>
+        <v>0.9999949932098389</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.6718679070472717</v>
+        <v>0.9991632699966431</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9292882680892944</v>
+        <v>0.9991320967674255</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.4684309363365173</v>
+        <v>0.9981379508972168</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.925194263458252</v>
+        <v>0.9990399479866028</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.7647378444671631</v>
+        <v>0.9994358420372009</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9639223217964172</v>
+        <v>0.9995098114013672</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7451521158218384</v>
+        <v>0.9258375763893127</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.6987766027450562</v>
+        <v>0.9999492168426514</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9659333825111389</v>
+        <v>0.9997044205665588</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9854434132575989</v>
+        <v>0.9998353719711304</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9798041582107544</v>
+        <v>0.9824001789093018</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.814033567905426</v>
+        <v>0.9999531507492065</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9877943992614746</v>
+        <v>0.9999738931655884</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5415709018707275</v>
+        <v>0.9997455477714539</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3188956081867218</v>
+        <v>0.9979475140571594</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.3605708181858063</v>
+        <v>0.9967049956321716</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9927244782447815</v>
+        <v>0.9999784231185913</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9291666150093079</v>
+        <v>0.9998438358306885</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9471781849861145</v>
+        <v>0.9984594583511353</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.8216035962104797</v>
+        <v>0.9988725781440735</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9949776530265808</v>
+        <v>0.9802229404449463</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.5934089422225952</v>
+        <v>0.999963641166687</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7965291738510132</v>
+        <v>0.9852907657623291</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.7314483523368835</v>
+        <v>0.9993231296539307</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9979447722434998</v>
+        <v>0.8595632910728455</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8910336494445801</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
   </sheetData>
